--- a/static/upload/template/student.xlsx
+++ b/static/upload/template/student.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -50,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +65,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,12 +97,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -98,12 +134,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -145,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,7 +219,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,41 +428,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>71</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
